--- a/PTW SOFT FILE EDITED.xlsx
+++ b/PTW SOFT FILE EDITED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WILDAN\PPNS\BISMILLAH SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\HappyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B17E34-201A-497A-8F96-7423644C7AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681EEC4D-D985-4E86-A4D0-9A9566E76E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{12412DB8-B810-4CDB-8475-EE9A4BAE3BAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="5" xr2:uid="{12412DB8-B810-4CDB-8475-EE9A4BAE3BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="HOT WORK" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="97">
   <si>
     <t>SURAT IZIN KERJA</t>
   </si>
@@ -1156,6 +1156,155 @@
   </si>
   <si>
     <t>PASTIKAN HOOK DAN KARABINER PADA FULL BODY HARNESS BERFUNGSI DENGAN BAIK (DAPAT MEMBUKA DAN MENGUNCI)</t>
+  </si>
+  <si>
+    <t>FORMULIR IJIN KERJA
+NO. REGISTER: {{ $datas-&gt;ptw_id }}/PTW/{{ $datas-&gt;project_code }}/{{ \App\Helpers\DateHelper::monthToRoman(optional($datas-&gt;created_at)-&gt;month) }}/{{ $datas-&gt;created_at-&gt;format('Y') }}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NAMA PROYEK: {{ $datas-&gt;project_name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROJECT NAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TANGGAL DIKELUARKAN          : {{ $datas-&gt;created_at }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISSUE DATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BERLAKU DARI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VALID FROM    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: TGL {{ $datas-&gt;berlaku_dari }}  TANGGAL: {{ $datas-&gt;berlaku_sampai }}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LOKASI KERJA                : {{ $datas-&gt;location_name }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOCATION OF WORK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URAIAN KEGIATAN      : {{ $datas-&gt;remark }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCOPE OF WORK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JUMLAH TENAGA KERJA                                                             : {{ $datas-&gt;manpower_qty }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANPOWER</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1393,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1416,9 +1565,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,20 +1591,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1451,17 +1603,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1480,6 +1623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1525,6 +1671,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,25 +2005,20 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>445326</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>61851</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>536681</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="494804" cy="474830"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBBE444-1EFC-4A22-8FD4-39AF8202399E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330F2872-D044-46B3-9AD1-1855D975F2EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,8 +2040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7103301" y="61851"/>
-          <a:ext cx="499381" cy="474830"/>
+          <a:off x="7088086" y="61851"/>
+          <a:ext cx="494804" cy="474830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,7 +2049,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1929,9 +2109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1969,7 +2149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2075,7 +2255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2217,7 +2397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2244,531 +2424,531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="22" t="s">
         <v>52</v>
       </c>
@@ -2786,89 +2966,55 @@
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="A1:K1"/>
@@ -2884,6 +3030,40 @@
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2915,427 +3095,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="22" t="s">
         <v>52</v>
       </c>
@@ -3353,75 +3533,62 @@
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B13:E13"/>
@@ -3438,13 +3605,26 @@
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3473,529 +3653,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5">
         <v>6</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5">
         <v>7</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5">
         <v>8</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5">
         <v>9</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5">
         <v>10</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="22" t="s">
         <v>52</v>
       </c>
@@ -4013,55 +4193,90 @@
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:J9"/>
@@ -4076,41 +4291,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4142,582 +4322,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="22" t="s">
         <v>52</v>
       </c>
@@ -4735,86 +4915,60 @@
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
@@ -4831,11 +4985,37 @@
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4867,518 +5047,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="43"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="44"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="44"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="44"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="44"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="44"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="44"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="45"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="22" t="s">
         <v>52</v>
       </c>
@@ -5396,55 +5576,86 @@
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="C20:J27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:J9"/>
@@ -5459,37 +5670,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="C20:J27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5502,10 +5682,1131 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507224BB-552A-4630-9C73-F9E117844686}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="N1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+    </row>
+    <row r="2" spans="1:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="N2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="N18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="N19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="N28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+    </row>
+    <row r="30" spans="1:24" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="N30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="1:24" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="N31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="1:24" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="N32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="87">
+    <mergeCell ref="O32:X32"/>
+    <mergeCell ref="B20:K27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:X28"/>
+    <mergeCell ref="O29:X29"/>
+    <mergeCell ref="O30:X30"/>
+    <mergeCell ref="O31:X31"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="O18:X18"/>
+    <mergeCell ref="N19:N27"/>
+    <mergeCell ref="O19:X19"/>
+    <mergeCell ref="P20:W20"/>
+    <mergeCell ref="P21:W21"/>
+    <mergeCell ref="P22:W22"/>
+    <mergeCell ref="P23:W23"/>
+    <mergeCell ref="P24:W24"/>
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P26:W26"/>
+    <mergeCell ref="P27:W27"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="O11:X11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="O6:X6"/>
+    <mergeCell ref="O7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A164AE-56D0-4C5D-B57C-590A48F3E2F5}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,563 +6822,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="43">
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:J9"/>
@@ -6092,597 +7352,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A164AE-56D0-4C5D-B57C-590A48F3E2F5}">
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6694,7 +7363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF6984E-D8E9-4C96-A640-4D2495E0B5E2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
